--- a/ClosedXML.Tests/Resource/Examples/Tables/ResizingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/ResizingTables.xlsx
@@ -511,10 +511,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.400625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.875425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.880625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.685425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="12.090625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.335425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.940625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="9.405425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:5">
@@ -702,10 +702,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.400625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.875425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.880625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.685425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="12.090625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.335425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.940625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="9.405425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:5">
@@ -899,11 +899,11 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="12.195425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.400625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.875425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.880625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.685425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="10.795425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="12.090625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.335425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.940625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="9.405425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:5">
@@ -1101,11 +1101,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.400625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.875425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.880625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="12.090625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.335425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.940625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.685425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.405425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Tables/ResizingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/ResizingTables.xlsx
@@ -511,10 +511,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.400625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.875425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.340625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.805425" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="11.880625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.685425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.625425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:5">
@@ -702,10 +702,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.400625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.875425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.340625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.805425" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="11.880625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.685425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.625425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:5">
@@ -900,10 +900,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="12.195425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.400625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.875425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.340625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.805425" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="11.880625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.685425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.625425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:5">
@@ -1101,11 +1101,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.400625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.875425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.340625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.805425" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="11.880625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.685425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.625425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Tables/ResizingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/ResizingTables.xlsx
@@ -511,10 +511,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="12.090625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.335425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.940625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="9.405425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.095425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="15.815425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="13.255425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="14.175425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:5">
@@ -702,10 +702,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="12.090625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.335425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.940625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="9.405425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.095425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="15.815425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="13.255425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="14.175425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:5">
@@ -899,11 +899,11 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="10.795425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="12.090625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.335425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.940625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="9.405425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="15.205425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.095425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="15.815425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="13.255425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="14.175425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:5">
@@ -1101,11 +1101,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="12.090625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.335425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.940625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.095425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="15.815425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="13.255425" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.405425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="14.175425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Tables/ResizingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/ResizingTables.xlsx
@@ -511,10 +511,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.095425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="15.815425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="13.255425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="14.175425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.775425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="18.315425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="14.975425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.185425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:5">
@@ -702,10 +702,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.095425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="15.815425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="13.255425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="14.175425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.775425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="18.315425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="14.975425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.185425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:5">
@@ -899,11 +899,11 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="15.205425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.095425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="15.815425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="13.255425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="14.175425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="17.515425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.775425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="18.315425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="14.975425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.185425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:5">
@@ -1101,11 +1101,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.095425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="15.815425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="13.255425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.775425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="18.315425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="14.975425" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="14.175425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="16.185425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Tables/ResizingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/ResizingTables.xlsx
@@ -511,10 +511,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.775425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="18.315425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="14.975425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.185425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.750625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="14.315425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="12.220625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="12.185425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:5">
@@ -702,10 +702,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.775425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="18.315425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="14.975425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.185425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.750625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="14.315425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="12.220625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="12.185425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:5">
@@ -899,11 +899,11 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="17.515425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.775425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="18.315425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="14.975425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.185425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="13.515425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.750625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="14.315425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="12.220625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="12.185425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:5">
@@ -1101,11 +1101,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.775425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="18.315425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="14.975425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.750625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="14.315425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="12.220625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="16.185425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.185425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Tables/ResizingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/ResizingTables.xlsx
@@ -511,10 +511,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="15.750625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="14.315425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="12.220625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="12.185425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="16.430625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="14.795425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="13.760625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="12.565425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:5">
@@ -702,10 +702,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="15.750625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="14.315425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="12.220625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="12.185425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="16.430625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="14.795425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="13.760625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="12.565425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:5">
@@ -899,11 +899,11 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="13.515425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="15.750625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="14.315425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="12.220625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="12.185425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="13.965425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="16.430625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="14.795425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="13.760625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="12.565425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:5">
@@ -1101,11 +1101,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="15.750625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="14.315425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="12.220625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="16.430625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="14.795425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="13.760625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="12.185425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.565425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Tables/ResizingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/ResizingTables.xlsx
@@ -511,10 +511,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="16.430625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="14.795425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="13.760625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="12.565425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.451656" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="14.108636" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.99941" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="12.020555" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:5">
@@ -702,10 +702,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="16.430625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="14.795425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="13.760625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="12.565425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.451656" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="14.108636" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.99941" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="12.020555" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:5">
@@ -899,11 +899,11 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="13.965425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="16.430625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="14.795425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="13.760625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="12.565425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="13.327373" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.451656" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="14.108636" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.99941" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="12.020555" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:5">
@@ -1101,11 +1101,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="16.430625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="14.795425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="13.760625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.451656" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="14.108636" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.99941" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="12.565425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.020555" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Tables/ResizingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/ResizingTables.xlsx
@@ -511,10 +511,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.400625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.875425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.880625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.685425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.410625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.935425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.920625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.705425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:5">
@@ -702,10 +702,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.400625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.875425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.880625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.685425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.410625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.935425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.920625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.705425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:5">
@@ -899,11 +899,11 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="12.195425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.400625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.875425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.880625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.685425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="12.285425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.410625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.935425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.920625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.705425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:5">
@@ -1101,11 +1101,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.400625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.875425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.880625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.410625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.935425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.920625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.685425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.705425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Tables/ResizingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/ResizingTables.xlsx
@@ -532,7 +532,7 @@
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
-      <x:c r="B3" s="0" t="n">
+      <x:c r="B3" s="0">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
@@ -541,12 +541,12 @@
       <x:c r="D3" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="n">
+      <x:c r="E3" s="0">
         <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
-      <x:c r="B4" s="0" t="n">
+      <x:c r="B4" s="0">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
@@ -555,12 +555,12 @@
       <x:c r="D4" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="n">
+      <x:c r="E4" s="0">
         <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
-      <x:c r="B5" s="0" t="n">
+      <x:c r="B5" s="0">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
@@ -569,12 +569,12 @@
       <x:c r="D5" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="n">
+      <x:c r="E5" s="0">
         <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
-      <x:c r="B6" s="0" t="n">
+      <x:c r="B6" s="0">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
@@ -583,12 +583,12 @@
       <x:c r="D6" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="E6" s="0" t="n">
+      <x:c r="E6" s="0">
         <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
-      <x:c r="B7" s="0" t="n">
+      <x:c r="B7" s="0">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
@@ -597,12 +597,12 @@
       <x:c r="D7" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="E7" s="0" t="n">
+      <x:c r="E7" s="0">
         <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
-      <x:c r="B8" s="0" t="n">
+      <x:c r="B8" s="0">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
@@ -611,12 +611,12 @@
       <x:c r="D8" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="E8" s="0" t="n">
+      <x:c r="E8" s="0">
         <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
-      <x:c r="B9" s="0" t="n">
+      <x:c r="B9" s="0">
         <x:v>7</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
@@ -625,12 +625,12 @@
       <x:c r="D9" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="E9" s="0" t="n">
+      <x:c r="E9" s="0">
         <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
-      <x:c r="B10" s="0" t="n">
+      <x:c r="B10" s="0">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
@@ -639,12 +639,12 @@
       <x:c r="D10" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="E10" s="0" t="n">
+      <x:c r="E10" s="0">
         <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
-      <x:c r="B11" s="0" t="n">
+      <x:c r="B11" s="0">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
@@ -653,12 +653,12 @@
       <x:c r="D11" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="E11" s="0" t="n">
+      <x:c r="E11" s="0">
         <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
-      <x:c r="B12" s="0" t="n">
+      <x:c r="B12" s="0">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
@@ -667,7 +667,7 @@
       <x:c r="D12" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="E12" s="0" t="n">
+      <x:c r="E12" s="0">
         <x:v>74</x:v>
       </x:c>
     </x:row>
@@ -723,7 +723,7 @@
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
-      <x:c r="B3" s="0" t="n">
+      <x:c r="B3" s="0">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
@@ -732,12 +732,12 @@
       <x:c r="D3" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="n">
+      <x:c r="E3" s="0">
         <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
-      <x:c r="B4" s="0" t="n">
+      <x:c r="B4" s="0">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
@@ -746,12 +746,12 @@
       <x:c r="D4" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="n">
+      <x:c r="E4" s="0">
         <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
-      <x:c r="B5" s="0" t="n">
+      <x:c r="B5" s="0">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
@@ -760,12 +760,12 @@
       <x:c r="D5" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="n">
+      <x:c r="E5" s="0">
         <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
-      <x:c r="B6" s="0" t="n">
+      <x:c r="B6" s="0">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
@@ -774,12 +774,12 @@
       <x:c r="D6" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="E6" s="0" t="n">
+      <x:c r="E6" s="0">
         <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
-      <x:c r="B7" s="0" t="n">
+      <x:c r="B7" s="0">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
@@ -788,12 +788,12 @@
       <x:c r="D7" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="E7" s="0" t="n">
+      <x:c r="E7" s="0">
         <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
-      <x:c r="B8" s="0" t="n">
+      <x:c r="B8" s="0">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
@@ -802,12 +802,12 @@
       <x:c r="D8" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="E8" s="0" t="n">
+      <x:c r="E8" s="0">
         <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
-      <x:c r="B9" s="0" t="n">
+      <x:c r="B9" s="0">
         <x:v>7</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
@@ -816,7 +816,7 @@
       <x:c r="D9" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="E9" s="0" t="n">
+      <x:c r="E9" s="0">
         <x:v>71</x:v>
       </x:c>
     </x:row>
@@ -824,12 +824,12 @@
       <x:c r="B10" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="E10" s="0" t="n">
+      <x:c r="E10" s="0">
         <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
-      <x:c r="B11" s="0" t="n">
+      <x:c r="B11" s="0">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
@@ -838,12 +838,12 @@
       <x:c r="D11" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="E11" s="0" t="n">
+      <x:c r="E11" s="0">
         <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
-      <x:c r="B12" s="0" t="n">
+      <x:c r="B12" s="0">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
@@ -852,12 +852,12 @@
       <x:c r="D12" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="E12" s="0" t="n">
+      <x:c r="E12" s="0">
         <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
-      <x:c r="B13" s="0" t="n">
+      <x:c r="B13" s="0">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
@@ -924,7 +924,7 @@
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
-      <x:c r="B3" s="0" t="n">
+      <x:c r="B3" s="0">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
@@ -933,12 +933,12 @@
       <x:c r="D3" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="n">
+      <x:c r="E3" s="0">
         <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
-      <x:c r="B4" s="0" t="n">
+      <x:c r="B4" s="0">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
@@ -947,12 +947,12 @@
       <x:c r="D4" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="n">
+      <x:c r="E4" s="0">
         <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
-      <x:c r="B5" s="0" t="n">
+      <x:c r="B5" s="0">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
@@ -961,12 +961,12 @@
       <x:c r="D5" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="n">
+      <x:c r="E5" s="0">
         <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
-      <x:c r="B6" s="0" t="n">
+      <x:c r="B6" s="0">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
@@ -975,12 +975,12 @@
       <x:c r="D6" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="E6" s="0" t="n">
+      <x:c r="E6" s="0">
         <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
-      <x:c r="B7" s="0" t="n">
+      <x:c r="B7" s="0">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
@@ -989,12 +989,12 @@
       <x:c r="D7" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="E7" s="0" t="n">
+      <x:c r="E7" s="0">
         <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
-      <x:c r="B8" s="0" t="n">
+      <x:c r="B8" s="0">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
@@ -1003,12 +1003,12 @@
       <x:c r="D8" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="E8" s="0" t="n">
+      <x:c r="E8" s="0">
         <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
-      <x:c r="B9" s="0" t="n">
+      <x:c r="B9" s="0">
         <x:v>7</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
@@ -1017,12 +1017,12 @@
       <x:c r="D9" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="E9" s="0" t="n">
+      <x:c r="E9" s="0">
         <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
-      <x:c r="B10" s="0" t="n">
+      <x:c r="B10" s="0">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
@@ -1031,7 +1031,7 @@
       <x:c r="D10" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="E10" s="0" t="n">
+      <x:c r="E10" s="0">
         <x:v>72</x:v>
       </x:c>
     </x:row>
@@ -1044,7 +1044,7 @@
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
-      <x:c r="B12" s="0" t="n">
+      <x:c r="B12" s="0">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
@@ -1053,12 +1053,12 @@
       <x:c r="D12" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="E12" s="0" t="n">
+      <x:c r="E12" s="0">
         <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
-      <x:c r="B13" s="0" t="n">
+      <x:c r="B13" s="0">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
@@ -1126,7 +1126,7 @@
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
-      <x:c r="B3" s="0" t="n">
+      <x:c r="B3" s="0">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
@@ -1135,12 +1135,12 @@
       <x:c r="D3" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F3" s="0" t="n">
+      <x:c r="F3" s="0">
         <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="B4" s="0" t="n">
+      <x:c r="B4" s="0">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
@@ -1149,12 +1149,12 @@
       <x:c r="D4" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="n">
+      <x:c r="F4" s="0">
         <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="B5" s="0" t="n">
+      <x:c r="B5" s="0">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
@@ -1163,12 +1163,12 @@
       <x:c r="D5" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="n">
+      <x:c r="F5" s="0">
         <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="B6" s="0" t="n">
+      <x:c r="B6" s="0">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
@@ -1177,12 +1177,12 @@
       <x:c r="D6" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="F6" s="0" t="n">
+      <x:c r="F6" s="0">
         <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
-      <x:c r="B7" s="0" t="n">
+      <x:c r="B7" s="0">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
@@ -1191,12 +1191,12 @@
       <x:c r="D7" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="F7" s="0" t="n">
+      <x:c r="F7" s="0">
         <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
-      <x:c r="B8" s="0" t="n">
+      <x:c r="B8" s="0">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
@@ -1205,12 +1205,12 @@
       <x:c r="D8" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="F8" s="0" t="n">
+      <x:c r="F8" s="0">
         <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
-      <x:c r="B9" s="0" t="n">
+      <x:c r="B9" s="0">
         <x:v>7</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
@@ -1219,12 +1219,12 @@
       <x:c r="D9" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="F9" s="0" t="n">
+      <x:c r="F9" s="0">
         <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
-      <x:c r="B10" s="0" t="n">
+      <x:c r="B10" s="0">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
@@ -1233,12 +1233,12 @@
       <x:c r="D10" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="F10" s="0" t="n">
+      <x:c r="F10" s="0">
         <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
-      <x:c r="B11" s="0" t="n">
+      <x:c r="B11" s="0">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
@@ -1247,12 +1247,12 @@
       <x:c r="D11" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="F11" s="0" t="n">
+      <x:c r="F11" s="0">
         <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
-      <x:c r="B12" s="0" t="n">
+      <x:c r="B12" s="0">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
@@ -1261,7 +1261,7 @@
       <x:c r="D12" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F12" s="0" t="n">
+      <x:c r="F12" s="0">
         <x:v>74</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML.Tests/Resource/Examples/Tables/ResizingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/ResizingTables.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Index</x:t>
   </x:si>
@@ -511,10 +511,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.410625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.935425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.920625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.705425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.139196" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.853482" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.282054" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="9.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:5">
@@ -702,10 +702,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.410625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.935425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.920625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.705425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.139196" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.853482" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.282054" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="9.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:5">
@@ -899,11 +899,11 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="12.285425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.410625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.935425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.920625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.705425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="11.282054" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.139196" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.853482" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.282054" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="9.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:5">
@@ -1101,11 +1101,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.410625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.935425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.920625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.139196" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.853482" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.282054" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.705425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Tables/ResizingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/ResizingTables.xlsx
@@ -500,7 +500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -691,7 +691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -889,7 +889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1090,7 +1090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Tables/ResizingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/ResizingTables.xlsx
@@ -6,10 +6,10 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <x:sheet name="Sheet3" sheetId="4" r:id="rId4"/>
-    <x:sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <x:sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <x:sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <x:sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>

--- a/ClosedXML.Tests/Resource/Examples/Tables/ResizingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/ResizingTables.xlsx
@@ -1103,8 +1103,7 @@
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="14.139196" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="11.853482" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.282054" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="4" max="5" width="11.282054" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="9.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
